--- a/resourses/Project 1 Arduino ini.xlsx
+++ b/resourses/Project 1 Arduino ini.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanew\Desktop\Boiler_Control\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dany\Desktop\Boiler_Control\resourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Serial</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>BTempSet</t>
-  </si>
-  <si>
-    <t>BTemp</t>
   </si>
   <si>
     <t>BHistSet</t>
@@ -345,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +359,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,61 +654,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G43"/>
+  <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="5" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="5" width="15.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -718,14 +718,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
@@ -733,14 +733,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
@@ -748,14 +748,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,24 +763,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -793,14 +793,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
@@ -811,14 +811,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
@@ -829,14 +829,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
@@ -847,14 +847,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
@@ -865,14 +865,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
@@ -883,14 +883,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
@@ -901,14 +901,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
@@ -919,14 +919,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -939,14 +939,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3" t="s">
         <v>62</v>
       </c>
@@ -957,41 +957,41 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>0</v>
       </c>
@@ -1002,8 +1002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
+        <f>C31 + E32</f>
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1013,8 +1014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="10">
+        <f t="shared" ref="C33:C42" si="0">C32 + E33</f>
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1024,8 +1026,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="1">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1035,8 +1038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1046,19 +1050,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="1">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="1">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1068,8 +1074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="1">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1079,8 +1086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="1">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1090,50 +1098,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1">
-        <v>10</v>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="10">
+        <f>32</f>
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="1">
-        <f>C40+32</f>
-        <v>42</v>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="10">
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="1">
-        <f>C41+32</f>
-        <v>74</v>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="10">
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="1">
-        <f>C42+32</f>
-        <v>106</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="1">
         <v>32</v>
       </c>
     </row>

--- a/resourses/Project 1 Arduino ini.xlsx
+++ b/resourses/Project 1 Arduino ini.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Serial</t>
   </si>
   <si>
-    <t>TX0</t>
-  </si>
-  <si>
-    <t>RX0</t>
-  </si>
-  <si>
     <t>NEXTION</t>
   </si>
   <si>
@@ -44,12 +38,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>DS18B20</t>
   </si>
   <si>
@@ -59,63 +47,18 @@
     <t>Температура подово</t>
   </si>
   <si>
-    <t>Температура колектор</t>
-  </si>
-  <si>
     <t>Комуникация</t>
   </si>
   <si>
     <t>Outputs</t>
   </si>
   <si>
-    <t>D31</t>
-  </si>
-  <si>
-    <t>D33</t>
-  </si>
-  <si>
-    <t>D35</t>
-  </si>
-  <si>
-    <t>D37</t>
-  </si>
-  <si>
-    <t>D39</t>
-  </si>
-  <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>D43</t>
-  </si>
-  <si>
-    <t>D45</t>
-  </si>
-  <si>
-    <t>D47</t>
-  </si>
-  <si>
-    <t>D49</t>
-  </si>
-  <si>
-    <t>D51</t>
-  </si>
-  <si>
-    <t>D53</t>
-  </si>
-  <si>
-    <t>RELAY BLOCK        1-8</t>
-  </si>
-  <si>
     <t>DISPLAY</t>
   </si>
   <si>
     <t>TEMPERTURE SENSORS</t>
   </si>
   <si>
-    <t>RELAY BLOCK        1-4</t>
-  </si>
-  <si>
     <t>RELAY 1</t>
   </si>
   <si>
@@ -206,9 +149,6 @@
     <t>RemoteHeater</t>
   </si>
   <si>
-    <t>Температура стайна</t>
-  </si>
-  <si>
     <t>RELAY 9</t>
   </si>
   <si>
@@ -246,13 +186,82 @@
   </si>
   <si>
     <t>BoilerPic</t>
+  </si>
+  <si>
+    <t>Variable size in bytes</t>
+  </si>
+  <si>
+    <t>RELAY BLOCK        8-1</t>
+  </si>
+  <si>
+    <t>RELAY BLOCK        4-1</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>RELAY BLOCK     4-1</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +278,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -338,11 +354,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,8 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,11 +394,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,17 +688,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G42"/>
+  <dimension ref="B3:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
@@ -676,46 +711,46 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>12</v>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -723,425 +758,446 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>55</v>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
       <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>29</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
+      <c r="B26" s="9">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B27" s="9">
+        <v>14</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>15</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="8"/>
+      <c r="B29" s="9">
+        <v>16</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
-        <f>C31 + E32</f>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <f>C34 + E35</f>
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="10">
-        <f t="shared" ref="C33:C42" si="0">C32 + E33</f>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="8">
+        <f t="shared" ref="C36:C45" si="0">C35 + E36</f>
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="10">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="10">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="10">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="10">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="10">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="10">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="10">
-        <f>32</f>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="8">
         <v>32</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="10">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="8">
         <v>74</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="10">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="8">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="D24:D27"/>
+  <mergeCells count="9">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="D22:D25"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D14:D21"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resourses/Project 1 Arduino ini.xlsx
+++ b/resourses/Project 1 Arduino ini.xlsx
@@ -242,9 +242,6 @@
     <t>RELAY BLOCK     4-1</t>
   </si>
   <si>
-    <t>OPTIONAL</t>
-  </si>
-  <si>
     <t>D26</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>D24</t>
+  </si>
+  <si>
+    <t>EXPANSION    OPTION</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -365,11 +365,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,21 +402,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,13 +732,13 @@
       <c r="C4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -727,9 +746,9 @@
       <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -743,7 +762,7 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -760,7 +779,7 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,7 +802,7 @@
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -792,7 +811,7 @@
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -803,7 +822,7 @@
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
@@ -821,7 +840,7 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
@@ -839,7 +858,7 @@
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
@@ -857,7 +876,7 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
@@ -875,7 +894,7 @@
       <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
@@ -893,7 +912,7 @@
       <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
@@ -911,11 +930,11 @@
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G21" t="s">
@@ -929,7 +948,7 @@
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -949,7 +968,7 @@
       <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
@@ -967,7 +986,7 @@
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
@@ -979,54 +998,56 @@
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="B26" s="15">
         <v>13</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="E26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>14</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>16</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
@@ -1035,14 +1056,14 @@
       <c r="E30" s="10"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="14"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="12" t="s">
         <v>54</v>
       </c>
     </row>

--- a/resourses/Project 1 Arduino ini.xlsx
+++ b/resourses/Project 1 Arduino ini.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dany\Desktop\Boiler_Control\resourses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dany\Documents\GitHub\Boiler_Control_Controller\resourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Serial</t>
   </si>
@@ -134,9 +134,6 @@
     <t>PoolPump</t>
   </si>
   <si>
-    <t>Button name</t>
-  </si>
-  <si>
     <t>3wayvalvedown</t>
   </si>
   <si>
@@ -255,6 +252,21 @@
   </si>
   <si>
     <t>EXPANSION    OPTION</t>
+  </si>
+  <si>
+    <t>TX3</t>
+  </si>
+  <si>
+    <t>RX3</t>
+  </si>
+  <si>
+    <t>WIFI MODULE</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>Button names</t>
   </si>
 </sst>
 </file>
@@ -294,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -321,43 +333,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -374,58 +349,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,518 +790,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>9</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="B22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>10</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>11</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>12</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>13</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>14</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>15</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>16</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="24">
+        <v>0</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="24">
+        <f>B34 + D35</f>
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="24">
+        <f t="shared" ref="B36:B45" si="0">B35 + D36</f>
         <v>2</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="C36" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="20">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
-        <v>13</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
-        <v>14</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>15</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <v>16</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
-        <f>C34 + E35</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="8">
-        <f t="shared" ref="C36:C45" si="0">C35 + E36</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="8">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="1">
+      <c r="D37" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="8">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="C38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="8">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="C39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="8">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="C40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="8">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="C41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="8">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="24">
+        <v>32</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="8">
+      <c r="D43" s="20">
         <v>32</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="24">
+        <v>74</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="1">
+      <c r="D44" s="20">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="8">
-        <v>74</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="8">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="24">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="C45" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="20">
         <v>32</v>
       </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="D22:D25"/>
+  <mergeCells count="12">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D14:D21"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resourses/Project 1 Arduino ini.xlsx
+++ b/resourses/Project 1 Arduino ini.xlsx
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
